--- a/booking-api-test-report.xlsx
+++ b/booking-api-test-report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Music\Assignment on JMeter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EB22F6-A6C3-46E0-B311-0ACD50345924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986E4E8A-D559-43AB-8B2D-AEBF6EC89980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>Test Name</t>
   </si>
@@ -142,7 +142,10 @@
     <t>Test - 18</t>
   </si>
   <si>
-    <t>Lower Bottleneck Point</t>
+    <t>Capacity Point</t>
+  </si>
+  <si>
+    <t>Bottleneck Point</t>
   </si>
 </sst>
 </file>
@@ -312,6 +315,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -320,12 +329,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -622,24 +625,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -812,14 +815,14 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -838,7 +841,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -848,24 +851,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -1128,7 +1131,7 @@
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="3">
         <v>20</v>
       </c>
@@ -1249,8 +1252,11 @@
       <c r="E23" s="10">
         <v>38500</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="11">
         <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1267,19 +1273,19 @@
       <c r="E24" s="10">
         <v>39000</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="11">
         <v>0.03</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
